--- a/Meses.xlsx
+++ b/Meses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVG\2022\Semestre 2 2022\Data science\HDT10\LAb10_Data_Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EADC1EA-F33F-430B-BF8B-A76290F28492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7684A901-CE90-4832-A6ED-DF881B8CEEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{EAB9BD77-F025-4D72-88D7-7225875A1B44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EAB9BD77-F025-4D72-88D7-7225875A1B44}"/>
   </bookViews>
   <sheets>
     <sheet name="MESES" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="33">
   <si>
     <t>MES ID</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>12.Diciembre</t>
+  </si>
+  <si>
+    <t>Es Prediccion</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -500,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9D8DAB-7C29-421B-AA0A-27E77654A44D}">
-  <dimension ref="A1:F270"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="G269" sqref="G269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -511,7 +520,7 @@
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -530,8 +539,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>36526</v>
       </c>
@@ -550,8 +562,11 @@
       <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>36557</v>
       </c>
@@ -570,8 +585,11 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>36586</v>
       </c>
@@ -590,8 +608,11 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>36617</v>
       </c>
@@ -610,8 +631,11 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>36647</v>
       </c>
@@ -630,8 +654,11 @@
       <c r="F6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>36678</v>
       </c>
@@ -650,8 +677,11 @@
       <c r="F7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>36708</v>
       </c>
@@ -670,8 +700,11 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>36739</v>
       </c>
@@ -690,8 +723,11 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>36770</v>
       </c>
@@ -710,8 +746,11 @@
       <c r="F10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>36800</v>
       </c>
@@ -730,8 +769,11 @@
       <c r="F11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>36831</v>
       </c>
@@ -750,8 +792,11 @@
       <c r="F12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>36861</v>
       </c>
@@ -770,8 +815,11 @@
       <c r="F13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>36892</v>
       </c>
@@ -790,8 +838,11 @@
       <c r="F14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>36923</v>
       </c>
@@ -810,8 +861,11 @@
       <c r="F15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>36951</v>
       </c>
@@ -830,8 +884,11 @@
       <c r="F16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>36982</v>
       </c>
@@ -850,8 +907,11 @@
       <c r="F17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>37012</v>
       </c>
@@ -870,8 +930,11 @@
       <c r="F18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>37043</v>
       </c>
@@ -890,8 +953,11 @@
       <c r="F19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>37073</v>
       </c>
@@ -910,8 +976,11 @@
       <c r="F20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>37104</v>
       </c>
@@ -930,8 +999,11 @@
       <c r="F21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>37135</v>
       </c>
@@ -950,8 +1022,11 @@
       <c r="F22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>37165</v>
       </c>
@@ -970,8 +1045,11 @@
       <c r="F23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>37196</v>
       </c>
@@ -990,8 +1068,11 @@
       <c r="F24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>37226</v>
       </c>
@@ -1010,8 +1091,11 @@
       <c r="F25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>37257</v>
       </c>
@@ -1030,8 +1114,11 @@
       <c r="F26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>37288</v>
       </c>
@@ -1050,8 +1137,11 @@
       <c r="F27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>37316</v>
       </c>
@@ -1070,8 +1160,11 @@
       <c r="F28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>37347</v>
       </c>
@@ -1090,8 +1183,11 @@
       <c r="F29" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>37377</v>
       </c>
@@ -1110,8 +1206,11 @@
       <c r="F30" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>37408</v>
       </c>
@@ -1130,8 +1229,11 @@
       <c r="F31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>37438</v>
       </c>
@@ -1150,8 +1252,11 @@
       <c r="F32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>37469</v>
       </c>
@@ -1170,8 +1275,11 @@
       <c r="F33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>37500</v>
       </c>
@@ -1190,8 +1298,11 @@
       <c r="F34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>37530</v>
       </c>
@@ -1210,8 +1321,11 @@
       <c r="F35" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>37561</v>
       </c>
@@ -1230,8 +1344,11 @@
       <c r="F36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>37591</v>
       </c>
@@ -1250,8 +1367,11 @@
       <c r="F37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>37622</v>
       </c>
@@ -1270,8 +1390,11 @@
       <c r="F38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37653</v>
       </c>
@@ -1290,8 +1413,11 @@
       <c r="F39" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>37681</v>
       </c>
@@ -1310,8 +1436,11 @@
       <c r="F40" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>37712</v>
       </c>
@@ -1330,8 +1459,11 @@
       <c r="F41" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>37742</v>
       </c>
@@ -1350,8 +1482,11 @@
       <c r="F42" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>37773</v>
       </c>
@@ -1370,8 +1505,11 @@
       <c r="F43" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>37803</v>
       </c>
@@ -1390,8 +1528,11 @@
       <c r="F44" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>37834</v>
       </c>
@@ -1410,8 +1551,11 @@
       <c r="F45" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>37865</v>
       </c>
@@ -1430,8 +1574,11 @@
       <c r="F46" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>37895</v>
       </c>
@@ -1450,8 +1597,11 @@
       <c r="F47" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>37926</v>
       </c>
@@ -1470,8 +1620,11 @@
       <c r="F48" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>37956</v>
       </c>
@@ -1490,8 +1643,11 @@
       <c r="F49" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>37987</v>
       </c>
@@ -1510,8 +1666,11 @@
       <c r="F50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>38018</v>
       </c>
@@ -1530,8 +1689,11 @@
       <c r="F51" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>38047</v>
       </c>
@@ -1550,8 +1712,11 @@
       <c r="F52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>38078</v>
       </c>
@@ -1570,8 +1735,11 @@
       <c r="F53" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>38108</v>
       </c>
@@ -1590,8 +1758,11 @@
       <c r="F54" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>38139</v>
       </c>
@@ -1610,8 +1781,11 @@
       <c r="F55" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>38169</v>
       </c>
@@ -1630,8 +1804,11 @@
       <c r="F56" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>38200</v>
       </c>
@@ -1650,8 +1827,11 @@
       <c r="F57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>38231</v>
       </c>
@@ -1670,8 +1850,11 @@
       <c r="F58" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>38261</v>
       </c>
@@ -1690,8 +1873,11 @@
       <c r="F59" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>38292</v>
       </c>
@@ -1710,8 +1896,11 @@
       <c r="F60" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>38322</v>
       </c>
@@ -1730,8 +1919,11 @@
       <c r="F61" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>38353</v>
       </c>
@@ -1750,8 +1942,11 @@
       <c r="F62" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>38384</v>
       </c>
@@ -1770,8 +1965,11 @@
       <c r="F63" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>38412</v>
       </c>
@@ -1790,8 +1988,11 @@
       <c r="F64" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>38443</v>
       </c>
@@ -1810,8 +2011,11 @@
       <c r="F65" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>38473</v>
       </c>
@@ -1830,8 +2034,11 @@
       <c r="F66" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>38504</v>
       </c>
@@ -1850,8 +2057,11 @@
       <c r="F67" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>38534</v>
       </c>
@@ -1870,8 +2080,11 @@
       <c r="F68" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>38565</v>
       </c>
@@ -1890,8 +2103,11 @@
       <c r="F69" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>38596</v>
       </c>
@@ -1910,8 +2126,11 @@
       <c r="F70" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>38626</v>
       </c>
@@ -1930,8 +2149,11 @@
       <c r="F71" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>38657</v>
       </c>
@@ -1950,8 +2172,11 @@
       <c r="F72" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>38687</v>
       </c>
@@ -1970,8 +2195,11 @@
       <c r="F73" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>38718</v>
       </c>
@@ -1990,8 +2218,11 @@
       <c r="F74" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>38749</v>
       </c>
@@ -2010,8 +2241,11 @@
       <c r="F75" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>38777</v>
       </c>
@@ -2030,8 +2264,11 @@
       <c r="F76" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>38808</v>
       </c>
@@ -2050,8 +2287,11 @@
       <c r="F77" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>38838</v>
       </c>
@@ -2070,8 +2310,11 @@
       <c r="F78" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>38869</v>
       </c>
@@ -2090,8 +2333,11 @@
       <c r="F79" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>38899</v>
       </c>
@@ -2110,8 +2356,11 @@
       <c r="F80" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>38930</v>
       </c>
@@ -2130,8 +2379,11 @@
       <c r="F81" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>38961</v>
       </c>
@@ -2150,8 +2402,11 @@
       <c r="F82" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>38991</v>
       </c>
@@ -2170,8 +2425,11 @@
       <c r="F83" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>39022</v>
       </c>
@@ -2190,8 +2448,11 @@
       <c r="F84" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>39052</v>
       </c>
@@ -2210,8 +2471,11 @@
       <c r="F85" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>39083</v>
       </c>
@@ -2230,8 +2494,11 @@
       <c r="F86" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>39114</v>
       </c>
@@ -2250,8 +2517,11 @@
       <c r="F87" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>39142</v>
       </c>
@@ -2270,8 +2540,11 @@
       <c r="F88" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>39173</v>
       </c>
@@ -2290,8 +2563,11 @@
       <c r="F89" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>39203</v>
       </c>
@@ -2310,8 +2586,11 @@
       <c r="F90" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>39234</v>
       </c>
@@ -2330,8 +2609,11 @@
       <c r="F91" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>39264</v>
       </c>
@@ -2350,8 +2632,11 @@
       <c r="F92" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>39295</v>
       </c>
@@ -2370,8 +2655,11 @@
       <c r="F93" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>39326</v>
       </c>
@@ -2390,8 +2678,11 @@
       <c r="F94" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>39356</v>
       </c>
@@ -2410,8 +2701,11 @@
       <c r="F95" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>39387</v>
       </c>
@@ -2430,8 +2724,11 @@
       <c r="F96" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>39417</v>
       </c>
@@ -2450,8 +2747,11 @@
       <c r="F97" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>39448</v>
       </c>
@@ -2470,8 +2770,11 @@
       <c r="F98" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>39479</v>
       </c>
@@ -2490,8 +2793,11 @@
       <c r="F99" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>39508</v>
       </c>
@@ -2510,8 +2816,11 @@
       <c r="F100" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>39539</v>
       </c>
@@ -2530,8 +2839,11 @@
       <c r="F101" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>39569</v>
       </c>
@@ -2550,8 +2862,11 @@
       <c r="F102" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>39600</v>
       </c>
@@ -2570,8 +2885,11 @@
       <c r="F103" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>39630</v>
       </c>
@@ -2590,8 +2908,11 @@
       <c r="F104" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>39661</v>
       </c>
@@ -2610,8 +2931,11 @@
       <c r="F105" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>39692</v>
       </c>
@@ -2630,8 +2954,11 @@
       <c r="F106" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>39722</v>
       </c>
@@ -2650,8 +2977,11 @@
       <c r="F107" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>39753</v>
       </c>
@@ -2670,8 +3000,11 @@
       <c r="F108" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>39783</v>
       </c>
@@ -2690,8 +3023,11 @@
       <c r="F109" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>39814</v>
       </c>
@@ -2710,8 +3046,11 @@
       <c r="F110" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>39845</v>
       </c>
@@ -2730,8 +3069,11 @@
       <c r="F111" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>39873</v>
       </c>
@@ -2750,8 +3092,11 @@
       <c r="F112" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>39904</v>
       </c>
@@ -2770,8 +3115,11 @@
       <c r="F113" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>39934</v>
       </c>
@@ -2790,8 +3138,11 @@
       <c r="F114" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>39965</v>
       </c>
@@ -2810,8 +3161,11 @@
       <c r="F115" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>39995</v>
       </c>
@@ -2830,8 +3184,11 @@
       <c r="F116" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>40026</v>
       </c>
@@ -2850,8 +3207,11 @@
       <c r="F117" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>40057</v>
       </c>
@@ -2870,8 +3230,11 @@
       <c r="F118" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>40087</v>
       </c>
@@ -2890,8 +3253,11 @@
       <c r="F119" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>40118</v>
       </c>
@@ -2910,8 +3276,11 @@
       <c r="F120" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>40148</v>
       </c>
@@ -2930,8 +3299,11 @@
       <c r="F121" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>40179</v>
       </c>
@@ -2950,8 +3322,11 @@
       <c r="F122" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>40210</v>
       </c>
@@ -2970,8 +3345,11 @@
       <c r="F123" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>40238</v>
       </c>
@@ -2990,8 +3368,11 @@
       <c r="F124" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>40269</v>
       </c>
@@ -3010,8 +3391,11 @@
       <c r="F125" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>40299</v>
       </c>
@@ -3030,8 +3414,11 @@
       <c r="F126" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>40330</v>
       </c>
@@ -3050,8 +3437,11 @@
       <c r="F127" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>40360</v>
       </c>
@@ -3070,8 +3460,11 @@
       <c r="F128" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>40391</v>
       </c>
@@ -3090,8 +3483,11 @@
       <c r="F129" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>40422</v>
       </c>
@@ -3110,8 +3506,11 @@
       <c r="F130" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>40452</v>
       </c>
@@ -3130,8 +3529,11 @@
       <c r="F131" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>40483</v>
       </c>
@@ -3150,8 +3552,11 @@
       <c r="F132" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>40513</v>
       </c>
@@ -3170,8 +3575,11 @@
       <c r="F133" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>40544</v>
       </c>
@@ -3190,8 +3598,11 @@
       <c r="F134" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>40575</v>
       </c>
@@ -3210,8 +3621,11 @@
       <c r="F135" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>40603</v>
       </c>
@@ -3230,8 +3644,11 @@
       <c r="F136" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>40634</v>
       </c>
@@ -3250,8 +3667,11 @@
       <c r="F137" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>40664</v>
       </c>
@@ -3270,8 +3690,11 @@
       <c r="F138" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>40695</v>
       </c>
@@ -3290,8 +3713,11 @@
       <c r="F139" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>40725</v>
       </c>
@@ -3310,8 +3736,11 @@
       <c r="F140" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>40756</v>
       </c>
@@ -3330,8 +3759,11 @@
       <c r="F141" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>40787</v>
       </c>
@@ -3350,8 +3782,11 @@
       <c r="F142" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>40817</v>
       </c>
@@ -3370,8 +3805,11 @@
       <c r="F143" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>40848</v>
       </c>
@@ -3390,8 +3828,11 @@
       <c r="F144" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>40878</v>
       </c>
@@ -3410,8 +3851,11 @@
       <c r="F145" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>40909</v>
       </c>
@@ -3430,8 +3874,11 @@
       <c r="F146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>40940</v>
       </c>
@@ -3450,8 +3897,11 @@
       <c r="F147" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>40969</v>
       </c>
@@ -3470,8 +3920,11 @@
       <c r="F148" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>41000</v>
       </c>
@@ -3490,8 +3943,11 @@
       <c r="F149" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>41030</v>
       </c>
@@ -3510,8 +3966,11 @@
       <c r="F150" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>41061</v>
       </c>
@@ -3530,8 +3989,11 @@
       <c r="F151" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>41091</v>
       </c>
@@ -3550,8 +4012,11 @@
       <c r="F152" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>41122</v>
       </c>
@@ -3570,8 +4035,11 @@
       <c r="F153" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>41153</v>
       </c>
@@ -3590,8 +4058,11 @@
       <c r="F154" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>41183</v>
       </c>
@@ -3610,8 +4081,11 @@
       <c r="F155" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>41214</v>
       </c>
@@ -3630,8 +4104,11 @@
       <c r="F156" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>41244</v>
       </c>
@@ -3650,8 +4127,11 @@
       <c r="F157" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>41275</v>
       </c>
@@ -3670,8 +4150,11 @@
       <c r="F158" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>41306</v>
       </c>
@@ -3690,8 +4173,11 @@
       <c r="F159" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>41334</v>
       </c>
@@ -3710,8 +4196,11 @@
       <c r="F160" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>41365</v>
       </c>
@@ -3730,8 +4219,11 @@
       <c r="F161" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>41395</v>
       </c>
@@ -3750,8 +4242,11 @@
       <c r="F162" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>41426</v>
       </c>
@@ -3770,8 +4265,11 @@
       <c r="F163" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>41456</v>
       </c>
@@ -3790,8 +4288,11 @@
       <c r="F164" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>41487</v>
       </c>
@@ -3810,8 +4311,11 @@
       <c r="F165" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>41518</v>
       </c>
@@ -3830,8 +4334,11 @@
       <c r="F166" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>41548</v>
       </c>
@@ -3850,8 +4357,11 @@
       <c r="F167" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>41579</v>
       </c>
@@ -3870,8 +4380,11 @@
       <c r="F168" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>41609</v>
       </c>
@@ -3890,8 +4403,11 @@
       <c r="F169" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>41640</v>
       </c>
@@ -3910,8 +4426,11 @@
       <c r="F170" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>41671</v>
       </c>
@@ -3930,8 +4449,11 @@
       <c r="F171" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>41699</v>
       </c>
@@ -3950,8 +4472,11 @@
       <c r="F172" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>41730</v>
       </c>
@@ -3970,8 +4495,11 @@
       <c r="F173" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>41760</v>
       </c>
@@ -3990,8 +4518,11 @@
       <c r="F174" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>41791</v>
       </c>
@@ -4010,8 +4541,11 @@
       <c r="F175" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>41821</v>
       </c>
@@ -4030,8 +4564,11 @@
       <c r="F176" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>41852</v>
       </c>
@@ -4050,8 +4587,11 @@
       <c r="F177" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>41883</v>
       </c>
@@ -4070,8 +4610,11 @@
       <c r="F178" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>41913</v>
       </c>
@@ -4090,8 +4633,11 @@
       <c r="F179" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>41944</v>
       </c>
@@ -4110,8 +4656,11 @@
       <c r="F180" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>41974</v>
       </c>
@@ -4130,8 +4679,11 @@
       <c r="F181" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>42005</v>
       </c>
@@ -4150,8 +4702,11 @@
       <c r="F182" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>42036</v>
       </c>
@@ -4170,8 +4725,11 @@
       <c r="F183" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>42064</v>
       </c>
@@ -4190,8 +4748,11 @@
       <c r="F184" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>42095</v>
       </c>
@@ -4210,8 +4771,11 @@
       <c r="F185" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>42125</v>
       </c>
@@ -4230,8 +4794,11 @@
       <c r="F186" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>42156</v>
       </c>
@@ -4250,8 +4817,11 @@
       <c r="F187" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>42186</v>
       </c>
@@ -4270,8 +4840,11 @@
       <c r="F188" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>42217</v>
       </c>
@@ -4290,8 +4863,11 @@
       <c r="F189" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>42248</v>
       </c>
@@ -4310,8 +4886,11 @@
       <c r="F190" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>42278</v>
       </c>
@@ -4330,8 +4909,11 @@
       <c r="F191" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>42309</v>
       </c>
@@ -4350,8 +4932,11 @@
       <c r="F192" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>42339</v>
       </c>
@@ -4370,8 +4955,11 @@
       <c r="F193" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>42370</v>
       </c>
@@ -4390,8 +4978,11 @@
       <c r="F194" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>42401</v>
       </c>
@@ -4410,8 +5001,11 @@
       <c r="F195" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>42430</v>
       </c>
@@ -4430,8 +5024,11 @@
       <c r="F196" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>42461</v>
       </c>
@@ -4450,8 +5047,11 @@
       <c r="F197" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>42491</v>
       </c>
@@ -4470,8 +5070,11 @@
       <c r="F198" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>42522</v>
       </c>
@@ -4490,8 +5093,11 @@
       <c r="F199" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>42552</v>
       </c>
@@ -4510,8 +5116,11 @@
       <c r="F200" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>42583</v>
       </c>
@@ -4530,8 +5139,11 @@
       <c r="F201" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>42614</v>
       </c>
@@ -4550,8 +5162,11 @@
       <c r="F202" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>42644</v>
       </c>
@@ -4570,8 +5185,11 @@
       <c r="F203" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>42675</v>
       </c>
@@ -4590,8 +5208,11 @@
       <c r="F204" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>42705</v>
       </c>
@@ -4610,8 +5231,11 @@
       <c r="F205" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>42736</v>
       </c>
@@ -4630,8 +5254,11 @@
       <c r="F206" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>42767</v>
       </c>
@@ -4650,8 +5277,11 @@
       <c r="F207" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>42795</v>
       </c>
@@ -4670,8 +5300,11 @@
       <c r="F208" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>42826</v>
       </c>
@@ -4690,8 +5323,11 @@
       <c r="F209" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>42856</v>
       </c>
@@ -4710,8 +5346,11 @@
       <c r="F210" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>42887</v>
       </c>
@@ -4730,8 +5369,11 @@
       <c r="F211" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>42917</v>
       </c>
@@ -4750,8 +5392,11 @@
       <c r="F212" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>42948</v>
       </c>
@@ -4770,8 +5415,11 @@
       <c r="F213" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>42979</v>
       </c>
@@ -4790,8 +5438,11 @@
       <c r="F214" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>43009</v>
       </c>
@@ -4810,8 +5461,11 @@
       <c r="F215" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>43040</v>
       </c>
@@ -4830,8 +5484,11 @@
       <c r="F216" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>43070</v>
       </c>
@@ -4850,8 +5507,11 @@
       <c r="F217" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>43101</v>
       </c>
@@ -4870,8 +5530,11 @@
       <c r="F218" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>43132</v>
       </c>
@@ -4890,8 +5553,11 @@
       <c r="F219" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>43160</v>
       </c>
@@ -4910,8 +5576,11 @@
       <c r="F220" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>43191</v>
       </c>
@@ -4930,8 +5599,11 @@
       <c r="F221" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>43221</v>
       </c>
@@ -4950,8 +5622,11 @@
       <c r="F222" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="G222" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>43252</v>
       </c>
@@ -4970,8 +5645,11 @@
       <c r="F223" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>43282</v>
       </c>
@@ -4990,8 +5668,11 @@
       <c r="F224" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>43313</v>
       </c>
@@ -5010,8 +5691,11 @@
       <c r="F225" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>43344</v>
       </c>
@@ -5030,8 +5714,11 @@
       <c r="F226" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>43374</v>
       </c>
@@ -5050,8 +5737,11 @@
       <c r="F227" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>43405</v>
       </c>
@@ -5070,8 +5760,11 @@
       <c r="F228" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>43435</v>
       </c>
@@ -5090,8 +5783,11 @@
       <c r="F229" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>43466</v>
       </c>
@@ -5110,8 +5806,11 @@
       <c r="F230" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>43497</v>
       </c>
@@ -5130,8 +5829,11 @@
       <c r="F231" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>43525</v>
       </c>
@@ -5150,8 +5852,11 @@
       <c r="F232" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>43556</v>
       </c>
@@ -5170,8 +5875,11 @@
       <c r="F233" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>43586</v>
       </c>
@@ -5190,8 +5898,11 @@
       <c r="F234" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>43617</v>
       </c>
@@ -5210,8 +5921,11 @@
       <c r="F235" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>43647</v>
       </c>
@@ -5230,8 +5944,11 @@
       <c r="F236" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>43678</v>
       </c>
@@ -5250,8 +5967,11 @@
       <c r="F237" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>43709</v>
       </c>
@@ -5270,8 +5990,11 @@
       <c r="F238" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>43739</v>
       </c>
@@ -5290,8 +6013,11 @@
       <c r="F239" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>43770</v>
       </c>
@@ -5310,8 +6036,11 @@
       <c r="F240" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>43800</v>
       </c>
@@ -5330,8 +6059,11 @@
       <c r="F241" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>43831</v>
       </c>
@@ -5350,8 +6082,11 @@
       <c r="F242" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>43862</v>
       </c>
@@ -5370,8 +6105,11 @@
       <c r="F243" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>43891</v>
       </c>
@@ -5390,8 +6128,11 @@
       <c r="F244" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>43922</v>
       </c>
@@ -5410,8 +6151,11 @@
       <c r="F245" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>43952</v>
       </c>
@@ -5430,8 +6174,11 @@
       <c r="F246" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>43983</v>
       </c>
@@ -5450,8 +6197,11 @@
       <c r="F247" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>44013</v>
       </c>
@@ -5470,8 +6220,11 @@
       <c r="F248" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>44044</v>
       </c>
@@ -5490,8 +6243,11 @@
       <c r="F249" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>44075</v>
       </c>
@@ -5510,8 +6266,11 @@
       <c r="F250" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>44105</v>
       </c>
@@ -5530,8 +6289,11 @@
       <c r="F251" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>44136</v>
       </c>
@@ -5550,8 +6312,11 @@
       <c r="F252" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>44166</v>
       </c>
@@ -5570,8 +6335,11 @@
       <c r="F253" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>44197</v>
       </c>
@@ -5590,8 +6358,11 @@
       <c r="F254" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>44228</v>
       </c>
@@ -5610,8 +6381,11 @@
       <c r="F255" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>44256</v>
       </c>
@@ -5630,8 +6404,11 @@
       <c r="F256" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>44287</v>
       </c>
@@ -5650,8 +6427,11 @@
       <c r="F257" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>44317</v>
       </c>
@@ -5670,8 +6450,11 @@
       <c r="F258" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>44348</v>
       </c>
@@ -5690,8 +6473,11 @@
       <c r="F259" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>44378</v>
       </c>
@@ -5710,8 +6496,11 @@
       <c r="F260" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>44409</v>
       </c>
@@ -5730,8 +6519,11 @@
       <c r="F261" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>44440</v>
       </c>
@@ -5750,8 +6542,11 @@
       <c r="F262" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>44470</v>
       </c>
@@ -5770,8 +6565,11 @@
       <c r="F263" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>44501</v>
       </c>
@@ -5790,8 +6588,11 @@
       <c r="F264" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>44531</v>
       </c>
@@ -5810,8 +6611,11 @@
       <c r="F265" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>44562</v>
       </c>
@@ -5822,6 +6626,7 @@
         <v>1</v>
       </c>
       <c r="D266">
+        <f>D254+1</f>
         <v>2022</v>
       </c>
       <c r="E266" t="s">
@@ -5830,8 +6635,11 @@
       <c r="F266" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>44593</v>
       </c>
@@ -5842,6 +6650,7 @@
         <v>2</v>
       </c>
       <c r="D267">
+        <f t="shared" ref="D267:D330" si="0">D255+1</f>
         <v>2022</v>
       </c>
       <c r="E267" t="s">
@@ -5850,8 +6659,11 @@
       <c r="F267" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>44621</v>
       </c>
@@ -5862,6 +6674,7 @@
         <v>3</v>
       </c>
       <c r="D268">
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="E268" t="s">
@@ -5870,8 +6683,11 @@
       <c r="F268" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>44652</v>
       </c>
@@ -5882,6 +6698,7 @@
         <v>4</v>
       </c>
       <c r="D269">
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="E269" t="s">
@@ -5890,8 +6707,11 @@
       <c r="F269" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>44682</v>
       </c>
@@ -5902,6 +6722,7 @@
         <v>5</v>
       </c>
       <c r="D270">
+        <f t="shared" si="0"/>
         <v>2022</v>
       </c>
       <c r="E270" t="s">
@@ -5909,6 +6730,873 @@
       </c>
       <c r="F270" t="s">
         <v>22</v>
+      </c>
+      <c r="G270" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B271">
+        <v>270</v>
+      </c>
+      <c r="C271">
+        <v>6</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" t="s">
+        <v>23</v>
+      </c>
+      <c r="G271" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B272">
+        <v>271</v>
+      </c>
+      <c r="C272">
+        <v>7</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="E272" t="s">
+        <v>11</v>
+      </c>
+      <c r="F272" t="s">
+        <v>24</v>
+      </c>
+      <c r="G272" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B273">
+        <v>272</v>
+      </c>
+      <c r="C273">
+        <v>8</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="E273" t="s">
+        <v>12</v>
+      </c>
+      <c r="F273" t="s">
+        <v>25</v>
+      </c>
+      <c r="G273" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B274">
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <v>9</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="E274" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" t="s">
+        <v>26</v>
+      </c>
+      <c r="G274" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B275">
+        <v>274</v>
+      </c>
+      <c r="C275">
+        <v>10</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="E275" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" t="s">
+        <v>27</v>
+      </c>
+      <c r="G275" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B276">
+        <v>275</v>
+      </c>
+      <c r="C276">
+        <v>11</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="E276" t="s">
+        <v>15</v>
+      </c>
+      <c r="F276" t="s">
+        <v>28</v>
+      </c>
+      <c r="G276" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B277">
+        <v>276</v>
+      </c>
+      <c r="C277">
+        <v>12</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="E277" t="s">
+        <v>16</v>
+      </c>
+      <c r="F277" t="s">
+        <v>29</v>
+      </c>
+      <c r="G277" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B278">
+        <v>277</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E278" t="s">
+        <v>5</v>
+      </c>
+      <c r="F278" t="s">
+        <v>18</v>
+      </c>
+      <c r="G278" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B279">
+        <v>278</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E279" t="s">
+        <v>6</v>
+      </c>
+      <c r="F279" t="s">
+        <v>19</v>
+      </c>
+      <c r="G279" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B280">
+        <v>279</v>
+      </c>
+      <c r="C280">
+        <v>3</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E280" t="s">
+        <v>7</v>
+      </c>
+      <c r="F280" t="s">
+        <v>20</v>
+      </c>
+      <c r="G280" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B281">
+        <v>280</v>
+      </c>
+      <c r="C281">
+        <v>4</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281" t="s">
+        <v>21</v>
+      </c>
+      <c r="G281" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B282">
+        <v>281</v>
+      </c>
+      <c r="C282">
+        <v>5</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E282" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" t="s">
+        <v>22</v>
+      </c>
+      <c r="G282" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B283">
+        <v>282</v>
+      </c>
+      <c r="C283">
+        <v>6</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E283" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" t="s">
+        <v>23</v>
+      </c>
+      <c r="G283" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B284">
+        <v>283</v>
+      </c>
+      <c r="C284">
+        <v>7</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E284" t="s">
+        <v>11</v>
+      </c>
+      <c r="F284" t="s">
+        <v>24</v>
+      </c>
+      <c r="G284" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B285">
+        <v>284</v>
+      </c>
+      <c r="C285">
+        <v>8</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E285" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285" t="s">
+        <v>25</v>
+      </c>
+      <c r="G285" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B286">
+        <v>285</v>
+      </c>
+      <c r="C286">
+        <v>9</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E286" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s">
+        <v>26</v>
+      </c>
+      <c r="G286" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B287">
+        <v>286</v>
+      </c>
+      <c r="C287">
+        <v>10</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E287" t="s">
+        <v>14</v>
+      </c>
+      <c r="F287" t="s">
+        <v>27</v>
+      </c>
+      <c r="G287" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B288">
+        <v>287</v>
+      </c>
+      <c r="C288">
+        <v>11</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E288" t="s">
+        <v>15</v>
+      </c>
+      <c r="F288" t="s">
+        <v>28</v>
+      </c>
+      <c r="G288" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B289">
+        <v>288</v>
+      </c>
+      <c r="C289">
+        <v>12</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="E289" t="s">
+        <v>16</v>
+      </c>
+      <c r="F289" t="s">
+        <v>29</v>
+      </c>
+      <c r="G289" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B290">
+        <v>289</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E290" t="s">
+        <v>5</v>
+      </c>
+      <c r="F290" t="s">
+        <v>18</v>
+      </c>
+      <c r="G290" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B291">
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E291" t="s">
+        <v>6</v>
+      </c>
+      <c r="F291" t="s">
+        <v>19</v>
+      </c>
+      <c r="G291" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B292">
+        <v>291</v>
+      </c>
+      <c r="C292">
+        <v>3</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E292" t="s">
+        <v>7</v>
+      </c>
+      <c r="F292" t="s">
+        <v>20</v>
+      </c>
+      <c r="G292" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B293">
+        <v>292</v>
+      </c>
+      <c r="C293">
+        <v>4</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293" t="s">
+        <v>21</v>
+      </c>
+      <c r="G293" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B294">
+        <v>293</v>
+      </c>
+      <c r="C294">
+        <v>5</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E294" t="s">
+        <v>9</v>
+      </c>
+      <c r="F294" t="s">
+        <v>22</v>
+      </c>
+      <c r="G294" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B295">
+        <v>294</v>
+      </c>
+      <c r="C295">
+        <v>6</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" t="s">
+        <v>23</v>
+      </c>
+      <c r="G295" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B296">
+        <v>295</v>
+      </c>
+      <c r="C296">
+        <v>7</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E296" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296" t="s">
+        <v>24</v>
+      </c>
+      <c r="G296" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B297">
+        <v>296</v>
+      </c>
+      <c r="C297">
+        <v>8</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E297" t="s">
+        <v>12</v>
+      </c>
+      <c r="F297" t="s">
+        <v>25</v>
+      </c>
+      <c r="G297" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B298">
+        <v>297</v>
+      </c>
+      <c r="C298">
+        <v>9</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E298" t="s">
+        <v>13</v>
+      </c>
+      <c r="F298" t="s">
+        <v>26</v>
+      </c>
+      <c r="G298" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B299">
+        <v>298</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E299" t="s">
+        <v>14</v>
+      </c>
+      <c r="F299" t="s">
+        <v>27</v>
+      </c>
+      <c r="G299" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B300">
+        <v>299</v>
+      </c>
+      <c r="C300">
+        <v>11</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E300" t="s">
+        <v>15</v>
+      </c>
+      <c r="F300" t="s">
+        <v>28</v>
+      </c>
+      <c r="G300" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B301">
+        <v>300</v>
+      </c>
+      <c r="C301">
+        <v>12</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="E301" t="s">
+        <v>16</v>
+      </c>
+      <c r="F301" t="s">
+        <v>29</v>
+      </c>
+      <c r="G301" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B302">
+        <v>301</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="E302" t="s">
+        <v>5</v>
+      </c>
+      <c r="F302" t="s">
+        <v>18</v>
+      </c>
+      <c r="G302" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B303">
+        <v>302</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="E303" t="s">
+        <v>6</v>
+      </c>
+      <c r="F303" t="s">
+        <v>19</v>
+      </c>
+      <c r="G303" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B304">
+        <v>303</v>
+      </c>
+      <c r="C304">
+        <v>3</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="E304" t="s">
+        <v>7</v>
+      </c>
+      <c r="F304" t="s">
+        <v>20</v>
+      </c>
+      <c r="G304" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B305">
+        <v>304</v>
+      </c>
+      <c r="C305">
+        <v>4</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="E305" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305" t="s">
+        <v>21</v>
+      </c>
+      <c r="G305" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B306">
+        <v>305</v>
+      </c>
+      <c r="C306">
+        <v>5</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="E306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" t="s">
+        <v>22</v>
+      </c>
+      <c r="G306" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
